--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/OREGON_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/OREGON_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1041"/>
+  <dimension ref="A1:D1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C36">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C56">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C60">
@@ -1384,7 +1384,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C76">
@@ -1410,7 +1410,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1467,7 +1467,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C82">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C106">
@@ -1875,12 +1875,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C114">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C121">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C129">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C138">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C145">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C153">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C159">
@@ -2587,7 +2587,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C167">
@@ -2600,7 +2600,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C168">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C174">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C185">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C189">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C192">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C195">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -3021,7 +3021,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C200">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C201">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C206">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C212">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C218">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C222">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C226">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C229">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C231">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C234">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C243">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C245">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C247">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C252">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C264">
@@ -3897,7 +3897,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C267">
@@ -3923,7 +3923,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C269">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C272">
@@ -4014,7 +4014,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C276">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C277">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C278">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C284">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C286">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C289">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C293">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C296">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C299">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C304">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C310">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C314">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C320">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C323">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C326">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C335">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C337">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C339">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C340">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C343">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C347">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C348">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C356">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C359">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C363">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C385">
@@ -5467,7 +5467,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C387">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C447">
@@ -6603,7 +6603,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C474">
@@ -6642,7 +6642,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C477">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C481">
@@ -6816,7 +6816,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C490">
@@ -6868,7 +6868,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C494">
@@ -6959,7 +6959,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C501">
@@ -7094,7 +7094,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C511">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C519">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C522">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C531">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C539">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C543">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C550">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C571">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C585">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C614">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C627">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C635">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C653">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C655">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C659">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C662">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C696">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C713">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C718">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C720">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C733">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C742">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C743">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C753">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C759">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C764">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C776">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C784">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C785">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C788">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C789">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C793">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C812">
@@ -11035,7 +11035,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C813">
@@ -11100,7 +11100,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C818">
@@ -11126,7 +11126,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C820">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C830">
@@ -11305,7 +11305,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C833">
@@ -11331,7 +11331,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C835">
@@ -11383,7 +11383,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C839">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C903">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C909">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C914">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C922">
@@ -12648,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C934">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C939">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C945">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C946">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C949">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C960">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C963">
@@ -13620,7 +13620,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1008">
@@ -13750,7 +13750,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1018">
@@ -13854,7 +13854,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1026">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1027">
@@ -13880,7 +13880,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1028">
@@ -13906,7 +13906,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1030">
@@ -13979,41 +13979,6 @@
       </c>
       <c r="D1035">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
